--- a/Code/Results/Cases/Case_6_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.17543077039212</v>
+        <v>21.17543077039211</v>
       </c>
       <c r="C2">
-        <v>12.77118681575715</v>
+        <v>12.77118681575708</v>
       </c>
       <c r="D2">
-        <v>10.64706480709509</v>
+        <v>10.64706480709525</v>
       </c>
       <c r="E2">
-        <v>7.112347063234388</v>
+        <v>7.11234706323432</v>
       </c>
       <c r="F2">
-        <v>64.28746101654839</v>
+        <v>64.28746101654825</v>
       </c>
       <c r="G2">
-        <v>2.103143030938679</v>
+        <v>2.103143030938541</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.182998446684482</v>
+        <v>6.18299844668454</v>
       </c>
       <c r="M2">
-        <v>12.59779204888493</v>
+        <v>12.59779204888495</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74129062264201</v>
+        <v>19.741290622642</v>
       </c>
       <c r="C3">
-        <v>11.8773158311246</v>
+        <v>11.8773158311243</v>
       </c>
       <c r="D3">
-        <v>10.24689398163526</v>
+        <v>10.24689398163532</v>
       </c>
       <c r="E3">
-        <v>7.036317073010368</v>
+        <v>7.036317073010109</v>
       </c>
       <c r="F3">
-        <v>60.72683722052119</v>
+        <v>60.7268372205214</v>
       </c>
       <c r="G3">
-        <v>2.118035873292003</v>
+        <v>2.11803587329186</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.117786409310861</v>
+        <v>6.117786409310804</v>
       </c>
       <c r="M3">
         <v>12.1246681126016</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89354998361978</v>
+        <v>18.89354998361982</v>
       </c>
       <c r="C4">
-        <v>11.30736866594177</v>
+        <v>11.3073686659414</v>
       </c>
       <c r="D4">
-        <v>9.999806198167036</v>
+        <v>9.999806198167047</v>
       </c>
       <c r="E4">
-        <v>6.990095940360584</v>
+        <v>6.990095940360384</v>
       </c>
       <c r="F4">
-        <v>58.49415500948645</v>
+        <v>58.49415500948631</v>
       </c>
       <c r="G4">
-        <v>2.127311641414663</v>
+        <v>2.127311641414416</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.0814615873577</v>
+        <v>6.081461587357744</v>
       </c>
       <c r="M4">
-        <v>11.84055326661547</v>
+        <v>11.84055326661553</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5439668106685</v>
+        <v>18.54396681066849</v>
       </c>
       <c r="C5">
-        <v>11.06958928103857</v>
+        <v>11.06958928103852</v>
       </c>
       <c r="D5">
-        <v>9.898752194781837</v>
+        <v>9.898752194781821</v>
       </c>
       <c r="E5">
-        <v>6.971322702672557</v>
+        <v>6.971322702672618</v>
       </c>
       <c r="F5">
-        <v>57.57284836022281</v>
+        <v>57.57284836022288</v>
       </c>
       <c r="G5">
-        <v>2.131130410435883</v>
+        <v>2.131130410435616</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.067560555103211</v>
+        <v>6.067560555103253</v>
       </c>
       <c r="M5">
-        <v>11.72644062476652</v>
+        <v>11.72644062476649</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48567655899721</v>
+        <v>18.48567655899722</v>
       </c>
       <c r="C6">
-        <v>11.02976701515813</v>
+        <v>11.02976701515807</v>
       </c>
       <c r="D6">
-        <v>9.881950125332141</v>
+        <v>9.881950125332061</v>
       </c>
       <c r="E6">
-        <v>6.968207724366689</v>
+        <v>6.968207724366879</v>
       </c>
       <c r="F6">
-        <v>57.41918367794268</v>
+        <v>57.41918367794254</v>
       </c>
       <c r="G6">
-        <v>2.131767015450397</v>
+        <v>2.131767015450394</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.065305831583795</v>
+        <v>6.065305831583916</v>
       </c>
       <c r="M6">
-        <v>11.70759509869568</v>
+        <v>11.70759509869573</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88885178517527</v>
+        <v>18.88885178517529</v>
       </c>
       <c r="C7">
-        <v>11.30418450753518</v>
+        <v>11.3041845075353</v>
       </c>
       <c r="D7">
-        <v>9.998444830751852</v>
+        <v>9.998444830751787</v>
       </c>
       <c r="E7">
-        <v>6.989842572485045</v>
+        <v>6.989842572484979</v>
       </c>
       <c r="F7">
-        <v>58.48177595258647</v>
+        <v>58.48177595258623</v>
       </c>
       <c r="G7">
-        <v>2.127362978328613</v>
+        <v>2.127362978328748</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.081270504451759</v>
+        <v>6.081270504451677</v>
       </c>
       <c r="M7">
-        <v>11.83900746165445</v>
+        <v>11.83900746165446</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64839003028664</v>
+        <v>20.64839003028668</v>
       </c>
       <c r="C8">
         <v>12.46722276886321</v>
       </c>
       <c r="D8">
-        <v>10.50935709757983</v>
+        <v>10.50935709757988</v>
       </c>
       <c r="E8">
-        <v>7.086001651861013</v>
+        <v>7.086001651861014</v>
       </c>
       <c r="F8">
-        <v>63.06945222776895</v>
+        <v>63.06945222776906</v>
       </c>
       <c r="G8">
-        <v>2.108254451293137</v>
+        <v>2.108254451293133</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.159721841061792</v>
+        <v>6.159721841061814</v>
       </c>
       <c r="M8">
         <v>12.43336338268386</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33100157202596</v>
+        <v>24.33100157202597</v>
       </c>
       <c r="C9">
-        <v>14.59182973998716</v>
+        <v>14.59182973998706</v>
       </c>
       <c r="D9">
-        <v>11.50212839534422</v>
+        <v>11.50212839534424</v>
       </c>
       <c r="E9">
-        <v>7.281053670464534</v>
+        <v>7.28105367046441</v>
       </c>
       <c r="F9">
-        <v>71.70070128671856</v>
+        <v>71.70070128671885</v>
       </c>
       <c r="G9">
-        <v>2.071528845489216</v>
+        <v>2.071528845489477</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.3446564899148</v>
+        <v>6.344656489914779</v>
       </c>
       <c r="M9">
-        <v>13.7349782554742</v>
+        <v>13.73497825547418</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.89472494917202</v>
+        <v>26.8947249491721</v>
       </c>
       <c r="C10">
         <v>16.0765517017399</v>
       </c>
       <c r="D10">
-        <v>12.23045608959969</v>
+        <v>12.23045608959988</v>
       </c>
       <c r="E10">
-        <v>7.43300778533552</v>
+        <v>7.433007785335476</v>
       </c>
       <c r="F10">
-        <v>77.84352591735761</v>
+        <v>77.84352591735818</v>
       </c>
       <c r="G10">
-        <v>2.044515133572046</v>
+        <v>2.044515133571903</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.502029786262242</v>
+        <v>6.502029786262249</v>
       </c>
       <c r="M10">
-        <v>15.16524727764555</v>
+        <v>15.16524727764558</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.03673195065007</v>
+        <v>28.03673195065008</v>
       </c>
       <c r="C11">
-        <v>16.74075235449782</v>
+        <v>16.74075235449788</v>
       </c>
       <c r="D11">
-        <v>12.5632173113938</v>
+        <v>12.56321731139392</v>
       </c>
       <c r="E11">
-        <v>7.505343389591712</v>
+        <v>7.505343389591807</v>
       </c>
       <c r="F11">
-        <v>80.60612347522881</v>
+        <v>80.60612347522967</v>
       </c>
       <c r="G11">
-        <v>2.032084620826753</v>
+        <v>2.032084620827274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.578979234252485</v>
+        <v>6.578979234252508</v>
       </c>
       <c r="M11">
-        <v>15.79874573796254</v>
+        <v>15.79874573796257</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.46640236921917</v>
+        <v>28.46640236921915</v>
       </c>
       <c r="C12">
-        <v>16.99120807210172</v>
+        <v>16.99120807210144</v>
       </c>
       <c r="D12">
-        <v>12.68962782911593</v>
+        <v>12.68962782911608</v>
       </c>
       <c r="E12">
-        <v>7.533336706724221</v>
+        <v>7.533336706724357</v>
       </c>
       <c r="F12">
-        <v>81.64905825673105</v>
+        <v>81.64905825673118</v>
       </c>
       <c r="G12">
-        <v>2.027343246601917</v>
+        <v>2.02734324660165</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.608959119771512</v>
+        <v>6.608959119771566</v>
       </c>
       <c r="M12">
-        <v>16.03657436656383</v>
+        <v>16.03657436656377</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.37397600019062</v>
+        <v>28.37397600019053</v>
       </c>
       <c r="C13">
-        <v>16.93730527284899</v>
+        <v>16.93730527284868</v>
       </c>
       <c r="D13">
-        <v>12.66238153758364</v>
+        <v>12.66238153758361</v>
       </c>
       <c r="E13">
-        <v>7.527278551494978</v>
+        <v>7.52727855149465</v>
       </c>
       <c r="F13">
-        <v>81.42455959863429</v>
+        <v>81.42455959863412</v>
       </c>
       <c r="G13">
         <v>2.028366157226892</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.602463749426386</v>
+        <v>6.602463749426366</v>
       </c>
       <c r="M13">
-        <v>15.98543829784561</v>
+        <v>15.98543829784559</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.07213236820342</v>
+        <v>28.07213236820362</v>
       </c>
       <c r="C14">
-        <v>16.76137525404775</v>
+        <v>16.76137525404768</v>
       </c>
       <c r="D14">
-        <v>12.57360783402452</v>
+        <v>12.57360783402462</v>
       </c>
       <c r="E14">
-        <v>7.507633457470197</v>
+        <v>7.50763345747022</v>
       </c>
       <c r="F14">
-        <v>80.69198114804799</v>
+        <v>80.69198114804836</v>
       </c>
       <c r="G14">
-        <v>2.03169531955086</v>
+        <v>2.031695319550882</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.58142839411921</v>
+        <v>6.581428394119232</v>
       </c>
       <c r="M14">
-        <v>15.81835083457112</v>
+        <v>15.81835083457122</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.88690560105101</v>
+        <v>27.88690560105094</v>
       </c>
       <c r="C15">
-        <v>16.65349281773765</v>
+        <v>16.65349281773761</v>
       </c>
       <c r="D15">
-        <v>12.51929030325674</v>
+        <v>12.51929030325671</v>
       </c>
       <c r="E15">
-        <v>7.49568323844114</v>
+        <v>7.495683238441083</v>
       </c>
       <c r="F15">
-        <v>80.24288665432726</v>
+        <v>80.24288665432732</v>
       </c>
       <c r="G15">
-        <v>2.033729616570697</v>
+        <v>2.033729616570826</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.568655450299239</v>
+        <v>6.568655450299153</v>
       </c>
       <c r="M15">
-        <v>15.7157493751519</v>
+        <v>15.71574937515189</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8196608798094</v>
+        <v>26.81966087980937</v>
       </c>
       <c r="C16">
-        <v>16.0329636146935</v>
+        <v>16.03296361469361</v>
       </c>
       <c r="D16">
-        <v>12.20875370953416</v>
+        <v>12.20875370953407</v>
       </c>
       <c r="E16">
-        <v>7.428356386146875</v>
+        <v>7.428356386146868</v>
       </c>
       <c r="F16">
-        <v>77.66245178866176</v>
+        <v>77.66245178866178</v>
       </c>
       <c r="G16">
-        <v>2.045323521300731</v>
+        <v>2.045323521300736</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.497114489784004</v>
+        <v>6.497114489783982</v>
       </c>
       <c r="M16">
-        <v>15.12353444670597</v>
+        <v>15.12353444670596</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.15918440611389</v>
+        <v>26.1591844061139</v>
       </c>
       <c r="C17">
-        <v>15.64977661156123</v>
+        <v>15.64977661156093</v>
       </c>
       <c r="D17">
-        <v>12.01874009014236</v>
+        <v>12.01874009014253</v>
       </c>
       <c r="E17">
-        <v>7.387966585435348</v>
+        <v>7.387966585435224</v>
       </c>
       <c r="F17">
-        <v>76.07214399883811</v>
+        <v>76.0721439988383</v>
       </c>
       <c r="G17">
-        <v>2.052390650181813</v>
+        <v>2.052390650181654</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.454644861356054</v>
+        <v>6.454644861356041</v>
       </c>
       <c r="M17">
         <v>14.75610363395106</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.77696339803595</v>
+        <v>25.77696339803589</v>
       </c>
       <c r="C18">
-        <v>15.42828426985312</v>
+        <v>15.42828426985293</v>
       </c>
       <c r="D18">
-        <v>11.90957043440488</v>
+        <v>11.90957043440497</v>
       </c>
       <c r="E18">
-        <v>7.365027813635542</v>
+        <v>7.36502781363535</v>
       </c>
       <c r="F18">
-        <v>75.1543427529041</v>
+        <v>75.15434275290414</v>
       </c>
       <c r="G18">
-        <v>2.056443089556855</v>
+        <v>2.056443089556867</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.430717023159857</v>
+        <v>6.430717023159866</v>
       </c>
       <c r="M18">
-        <v>14.54312625978079</v>
+        <v>14.54312625978075</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.64713037561715</v>
+        <v>25.64713037561719</v>
       </c>
       <c r="C19">
-        <v>15.35308796668561</v>
+        <v>15.35308796668587</v>
       </c>
       <c r="D19">
-        <v>11.87262322720972</v>
+        <v>11.87262322720975</v>
       </c>
       <c r="E19">
-        <v>7.357307553968447</v>
+        <v>7.357307553968464</v>
       </c>
       <c r="F19">
-        <v>74.84302357737337</v>
+        <v>74.84302357737351</v>
       </c>
       <c r="G19">
-        <v>2.057813427735766</v>
+        <v>2.057813427735903</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.422699350317085</v>
+        <v>6.422699350317094</v>
       </c>
       <c r="M19">
-        <v>14.47072288219758</v>
+        <v>14.47072288219768</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.22973004500822</v>
+        <v>26.2297300450082</v>
       </c>
       <c r="C20">
-        <v>15.6906770389749</v>
+        <v>15.69067703897499</v>
       </c>
       <c r="D20">
         <v>12.03895359248713</v>
       </c>
       <c r="E20">
-        <v>7.392234968227767</v>
+        <v>7.392234968227839</v>
       </c>
       <c r="F20">
-        <v>76.24174698289532</v>
+        <v>76.24174698289553</v>
       </c>
       <c r="G20">
-        <v>2.051639715914014</v>
+        <v>2.051639715913888</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.459113657908006</v>
+        <v>6.459113657907982</v>
       </c>
       <c r="M20">
-        <v>14.79538442061858</v>
+        <v>14.79538442061856</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.16086028503478</v>
+        <v>28.16086028503491</v>
       </c>
       <c r="C21">
-        <v>16.81307407831644</v>
+        <v>16.81307407831604</v>
       </c>
       <c r="D21">
-        <v>12.59967011625277</v>
+        <v>12.5996701162527</v>
       </c>
       <c r="E21">
-        <v>7.513386114762071</v>
+        <v>7.513386114761938</v>
       </c>
       <c r="F21">
-        <v>80.90723105430837</v>
+        <v>80.90723105430793</v>
       </c>
       <c r="G21">
-        <v>2.030718515931124</v>
+        <v>2.03071851593111</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.587583539101424</v>
+        <v>6.587583539101432</v>
       </c>
       <c r="M21">
-        <v>15.86748090812512</v>
+        <v>15.86748090812518</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.40719365204331</v>
+        <v>29.40719365204315</v>
       </c>
       <c r="C22">
-        <v>17.5407721474134</v>
+        <v>17.54077214741325</v>
       </c>
       <c r="D22">
-        <v>12.9686010804604</v>
+        <v>12.9686010804606</v>
       </c>
       <c r="E22">
-        <v>7.596158730528585</v>
+        <v>7.596158730528457</v>
       </c>
       <c r="F22">
-        <v>83.9386904823954</v>
+        <v>83.93869048239567</v>
       </c>
       <c r="G22">
-        <v>2.016837388151428</v>
+        <v>2.016837388151171</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.676490531112461</v>
+        <v>6.676490531112387</v>
       </c>
       <c r="M22">
-        <v>16.55637425284936</v>
+        <v>16.55637425284932</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.74316926475705</v>
+        <v>28.74316926475728</v>
       </c>
       <c r="C23">
-        <v>17.15270972475747</v>
+        <v>17.15270972475764</v>
       </c>
       <c r="D23">
-        <v>12.77139043212106</v>
+        <v>12.77139043212114</v>
       </c>
       <c r="E23">
-        <v>7.551598291775387</v>
+        <v>7.55159829177542</v>
       </c>
       <c r="F23">
-        <v>82.32179686314349</v>
+        <v>82.32179686314439</v>
       </c>
       <c r="G23">
-        <v>2.024270343150829</v>
+        <v>2.024270343150962</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.628559672287198</v>
+        <v>6.628559672287147</v>
       </c>
       <c r="M23">
-        <v>16.18962412890124</v>
+        <v>16.18962412890136</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.19784421266339</v>
+        <v>26.19784421266341</v>
       </c>
       <c r="C24">
-        <v>15.67218971135008</v>
+        <v>15.67218971134979</v>
       </c>
       <c r="D24">
-        <v>12.02981485841949</v>
+        <v>12.02981485841948</v>
       </c>
       <c r="E24">
-        <v>7.390304364442724</v>
+        <v>7.390304364442649</v>
       </c>
       <c r="F24">
-        <v>76.16508051091482</v>
+        <v>76.16508051091432</v>
       </c>
       <c r="G24">
-        <v>2.051979245150879</v>
+        <v>2.051979245150883</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.457091798447887</v>
+        <v>6.457091798447882</v>
       </c>
       <c r="M24">
-        <v>14.777631014863</v>
+        <v>14.77763101486302</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.36150407867133</v>
+        <v>23.36150407867125</v>
       </c>
       <c r="C25">
-        <v>14.03201564331981</v>
+        <v>14.03201564331998</v>
       </c>
       <c r="D25">
-        <v>11.23417762673784</v>
+        <v>11.23417762673776</v>
       </c>
       <c r="E25">
-        <v>7.227156268119312</v>
+        <v>7.227156268119233</v>
       </c>
       <c r="F25">
-        <v>69.40333072876112</v>
+        <v>69.40333072876065</v>
       </c>
       <c r="G25">
-        <v>2.081429862177122</v>
+        <v>2.081429862177244</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.291055137312464</v>
+        <v>6.291055137312462</v>
       </c>
       <c r="M25">
-        <v>13.31437285597654</v>
+        <v>13.31437285597655</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.17543077039211</v>
+        <v>21.33174568698395</v>
       </c>
       <c r="C2">
-        <v>12.77118681575708</v>
+        <v>15.37966502769454</v>
       </c>
       <c r="D2">
-        <v>10.64706480709525</v>
+        <v>4.393702360716603</v>
       </c>
       <c r="E2">
-        <v>7.11234706323432</v>
+        <v>7.493382197383699</v>
       </c>
       <c r="F2">
-        <v>64.28746101654825</v>
+        <v>23.90957702922389</v>
       </c>
       <c r="G2">
-        <v>2.103143030938541</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>33.09862730820993</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.758529572184167</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.9250605332569</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.94296112377506</v>
       </c>
       <c r="L2">
-        <v>6.18299844668454</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.59779204888495</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.266653795762846</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.56260559035789</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.741290622642</v>
+        <v>19.90043306112103</v>
       </c>
       <c r="C3">
-        <v>11.8773158311243</v>
+        <v>14.52674623312022</v>
       </c>
       <c r="D3">
-        <v>10.24689398163532</v>
+        <v>4.365875534903131</v>
       </c>
       <c r="E3">
-        <v>7.036317073010109</v>
+        <v>7.538060140902676</v>
       </c>
       <c r="F3">
-        <v>60.7268372205214</v>
+        <v>23.19069081910672</v>
       </c>
       <c r="G3">
-        <v>2.11803587329186</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>31.98734083661795</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.01488930786469</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.8430275185943</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.97459671885175</v>
       </c>
       <c r="L3">
-        <v>6.117786409310804</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.1246681126016</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.191444151910624</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.95210875125393</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89354998361982</v>
+        <v>18.96911851816641</v>
       </c>
       <c r="C4">
-        <v>11.3073686659414</v>
+        <v>13.98121779615658</v>
       </c>
       <c r="D4">
-        <v>9.999806198167047</v>
+        <v>4.348902170835024</v>
       </c>
       <c r="E4">
-        <v>6.990095940360384</v>
+        <v>7.566543286055605</v>
       </c>
       <c r="F4">
-        <v>58.49415500948631</v>
+        <v>22.75361518854045</v>
       </c>
       <c r="G4">
-        <v>2.127311641414416</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>31.30848712941291</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.178059764124068</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.79816705895988</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.00240048733601</v>
       </c>
       <c r="L4">
-        <v>6.081461587357744</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.84055326661553</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.148677279686359</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.56479231365462</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54396681066849</v>
+        <v>18.57599371949192</v>
       </c>
       <c r="C5">
-        <v>11.06958928103852</v>
+        <v>13.76256879408981</v>
       </c>
       <c r="D5">
-        <v>9.898752194781821</v>
+        <v>4.343242989010481</v>
       </c>
       <c r="E5">
-        <v>6.971322702672618</v>
+        <v>7.578131251954168</v>
       </c>
       <c r="F5">
-        <v>57.57284836022288</v>
+        <v>22.56023889273903</v>
       </c>
       <c r="G5">
-        <v>2.131130410435616</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>31.00309148690405</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.248908966568892</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.77567307397755</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.00427893532348</v>
       </c>
       <c r="L5">
-        <v>6.067560555103253</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.72644062476649</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.132679364664967</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.40460975352822</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48567655899722</v>
+        <v>18.50950970965657</v>
       </c>
       <c r="C6">
-        <v>11.02976701515807</v>
+        <v>13.7370623113071</v>
       </c>
       <c r="D6">
-        <v>9.881950125332061</v>
+        <v>4.343822525103397</v>
       </c>
       <c r="E6">
-        <v>6.968207724366879</v>
+        <v>7.579730915369066</v>
       </c>
       <c r="F6">
-        <v>57.41918367794254</v>
+        <v>22.50796994901187</v>
       </c>
       <c r="G6">
-        <v>2.131767015450394</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>30.91582013361162</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.264464589826698</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.76522333816422</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.99071982593772</v>
       </c>
       <c r="L6">
-        <v>6.065305831583916</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.70759509869573</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.130776923367353</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.37858120749229</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88885178517529</v>
+        <v>18.9627902254402</v>
       </c>
       <c r="C7">
-        <v>11.3041845075353</v>
+        <v>14.00812383921444</v>
       </c>
       <c r="D7">
-        <v>9.998444830751787</v>
+        <v>4.353010430638517</v>
       </c>
       <c r="E7">
-        <v>6.989842572484979</v>
+        <v>7.565807289305397</v>
       </c>
       <c r="F7">
-        <v>58.48177595258623</v>
+        <v>22.69625287670922</v>
       </c>
       <c r="G7">
-        <v>2.127362978328748</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>31.2053638160924</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.188878628084425</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.77935349018703</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.96420847888814</v>
       </c>
       <c r="L7">
-        <v>6.081270504451677</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.83900746165446</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.150367950657161</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.56461278468632</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64839003028668</v>
+        <v>20.84771288745366</v>
       </c>
       <c r="C8">
-        <v>12.46722276886321</v>
+        <v>15.1272470144406</v>
       </c>
       <c r="D8">
-        <v>10.50935709757988</v>
+        <v>4.38981615376554</v>
       </c>
       <c r="E8">
-        <v>7.086001651861014</v>
+        <v>7.507564051027769</v>
       </c>
       <c r="F8">
-        <v>63.06945222776906</v>
+        <v>23.59109317984764</v>
       </c>
       <c r="G8">
-        <v>2.108254451293133</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>32.58916305073019</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.85872744641662</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.87141183697523</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.901606587358</v>
       </c>
       <c r="L8">
-        <v>6.159721841061814</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.43336338268386</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.242499612282035</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.35714987798532</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33100157202597</v>
+        <v>24.13312007130835</v>
       </c>
       <c r="C9">
-        <v>14.59182973998706</v>
+        <v>17.09822385076288</v>
       </c>
       <c r="D9">
-        <v>11.50212839534424</v>
+        <v>4.455166712718079</v>
       </c>
       <c r="E9">
-        <v>7.28105367046441</v>
+        <v>7.403021876566636</v>
       </c>
       <c r="F9">
-        <v>71.70070128671885</v>
+        <v>25.46530265833022</v>
       </c>
       <c r="G9">
-        <v>2.071528845489477</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>35.48497165091449</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.709353480966515</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.13007354564143</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.91872848897279</v>
       </c>
       <c r="L9">
-        <v>6.344656489914779</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.73497825547418</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.446904748004632</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.80293485298547</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.8947249491721</v>
+        <v>26.30011605254105</v>
       </c>
       <c r="C10">
-        <v>16.0765517017399</v>
+        <v>18.45142711047182</v>
       </c>
       <c r="D10">
-        <v>12.23045608959988</v>
+        <v>4.506314591181087</v>
       </c>
       <c r="E10">
-        <v>7.433007785335476</v>
+        <v>7.331203206528636</v>
       </c>
       <c r="F10">
-        <v>77.84352591735818</v>
+        <v>26.82447554593839</v>
       </c>
       <c r="G10">
-        <v>2.044515133571903</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>37.56323402456289</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.129723211178859</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.34147154465578</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.96358260991932</v>
       </c>
       <c r="L10">
-        <v>6.502029786262249</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.16524727764558</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.614429767194907</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.91607268559968</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.03673195065008</v>
+        <v>27.23216038491634</v>
       </c>
       <c r="C11">
-        <v>16.74075235449788</v>
+        <v>19.08107645699942</v>
       </c>
       <c r="D11">
-        <v>12.56321731139392</v>
+        <v>4.537598904636207</v>
       </c>
       <c r="E11">
-        <v>7.505343389591807</v>
+        <v>7.29909281428389</v>
       </c>
       <c r="F11">
-        <v>80.60612347522967</v>
+        <v>27.36880830037999</v>
       </c>
       <c r="G11">
-        <v>2.032084620827274</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>38.37423424105336</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.321473393399067</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.41660909895021</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.9357019064043</v>
       </c>
       <c r="L11">
-        <v>6.578979234252508</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.79874573796257</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.697032165355295</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.42960541793261</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.46640236921915</v>
+        <v>27.57848685921778</v>
       </c>
       <c r="C12">
-        <v>16.99120807210144</v>
+        <v>19.29568681514741</v>
       </c>
       <c r="D12">
-        <v>12.68962782911608</v>
+        <v>4.545400628159071</v>
       </c>
       <c r="E12">
-        <v>7.533336706724357</v>
+        <v>7.28748130235774</v>
       </c>
       <c r="F12">
-        <v>81.64905825673118</v>
+        <v>27.61521206284623</v>
       </c>
       <c r="G12">
-        <v>2.02734324660165</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.75252339715097</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.391706502377517</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.46123629056627</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.95971263139361</v>
       </c>
       <c r="L12">
-        <v>6.608959119771566</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>16.03657436656377</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.727281338661243</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.61965862664107</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.37397600019053</v>
+        <v>27.5043864424485</v>
       </c>
       <c r="C13">
-        <v>16.93730527284868</v>
+        <v>19.24559072268403</v>
       </c>
       <c r="D13">
-        <v>12.66238153758361</v>
+        <v>4.542887401879891</v>
       </c>
       <c r="E13">
-        <v>7.52727855149465</v>
+        <v>7.290041408432925</v>
       </c>
       <c r="F13">
-        <v>81.42455959863412</v>
+        <v>27.57009996479032</v>
       </c>
       <c r="G13">
-        <v>2.028366157226892</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>38.68518570965757</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.376163598540585</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.45458799804722</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.96097839526015</v>
       </c>
       <c r="L13">
-        <v>6.602463749426366</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.98543829784559</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.72043855657327</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.57878514636496</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.07213236820362</v>
+        <v>27.26086862945367</v>
       </c>
       <c r="C14">
-        <v>16.76137525404768</v>
+        <v>19.09707769271501</v>
       </c>
       <c r="D14">
-        <v>12.57360783402462</v>
+        <v>4.537887273133409</v>
       </c>
       <c r="E14">
-        <v>7.50763345747022</v>
+        <v>7.298163163629069</v>
       </c>
       <c r="F14">
-        <v>80.69198114804836</v>
+        <v>27.3924798405628</v>
       </c>
       <c r="G14">
-        <v>2.031695319550882</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>38.41140014103023</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.327064591715807</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.42154162473319</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.94041243892769</v>
       </c>
       <c r="L14">
-        <v>6.581428394119232</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.81835083457122</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.699380390250688</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.44526972290546</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.88690560105094</v>
+        <v>27.11042953597827</v>
       </c>
       <c r="C15">
-        <v>16.65349281773761</v>
+        <v>19.01371335385858</v>
       </c>
       <c r="D15">
-        <v>12.51929030325671</v>
+        <v>4.536463952704438</v>
       </c>
       <c r="E15">
-        <v>7.495683238441083</v>
+        <v>7.303023537622473</v>
       </c>
       <c r="F15">
-        <v>80.24288665432732</v>
+        <v>27.26782731230197</v>
       </c>
       <c r="G15">
-        <v>2.033729616570826</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>38.21548204819202</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.297921909480453</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.39547883706449</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.91520116906397</v>
       </c>
       <c r="L15">
-        <v>6.568655450299153</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.71574937515189</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.687153313965895</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.36321504352091</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.81966087980937</v>
+        <v>26.23548251483279</v>
       </c>
       <c r="C16">
-        <v>16.03296361469361</v>
+        <v>18.4788239841845</v>
       </c>
       <c r="D16">
-        <v>12.20875370953407</v>
+        <v>4.517908032521012</v>
       </c>
       <c r="E16">
-        <v>7.428356386146868</v>
+        <v>7.332053746221397</v>
       </c>
       <c r="F16">
-        <v>77.66245178866178</v>
+        <v>26.65322833523818</v>
       </c>
       <c r="G16">
-        <v>2.045323521300736</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>37.26882102692495</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.12458641267261</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.28610329784713</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.85677276621804</v>
       </c>
       <c r="L16">
-        <v>6.497114489783982</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>15.12353444670596</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.614250884080858</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.88392256781344</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.1591844061139</v>
+        <v>25.68541938748243</v>
       </c>
       <c r="C17">
-        <v>15.64977661156093</v>
+        <v>18.14480883590733</v>
       </c>
       <c r="D17">
-        <v>12.01874009014253</v>
+        <v>4.506515235664527</v>
       </c>
       <c r="E17">
-        <v>7.387966585435224</v>
+        <v>7.35015309764942</v>
       </c>
       <c r="F17">
-        <v>76.0721439988383</v>
+        <v>26.27615658493456</v>
       </c>
       <c r="G17">
-        <v>2.052390650181654</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>36.68711067863794</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.017836093693918</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.22098836185281</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.82472785161942</v>
       </c>
       <c r="L17">
-        <v>6.454644861356041</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.75610363395106</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.570420772632247</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.58302346051885</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.77696339803589</v>
+        <v>25.36493302090953</v>
       </c>
       <c r="C18">
-        <v>15.42828426985293</v>
+        <v>17.92903717985568</v>
       </c>
       <c r="D18">
-        <v>11.90957043440497</v>
+        <v>4.495828213817512</v>
       </c>
       <c r="E18">
-        <v>7.36502781363535</v>
+        <v>7.361071369947926</v>
       </c>
       <c r="F18">
-        <v>75.15434275290414</v>
+        <v>26.10127175288269</v>
       </c>
       <c r="G18">
-        <v>2.056443089556867</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>36.42704340163491</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.952894901565434</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.19970883664279</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.84066837949192</v>
       </c>
       <c r="L18">
-        <v>6.430717023159866</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.54312625978075</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.543962151563145</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.40680009407061</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.64713037561719</v>
+        <v>25.25494288649818</v>
       </c>
       <c r="C19">
-        <v>15.35308796668587</v>
+        <v>17.87214508020352</v>
       </c>
       <c r="D19">
-        <v>11.87262322720975</v>
+        <v>4.495393068268957</v>
       </c>
       <c r="E19">
-        <v>7.357307553968464</v>
+        <v>7.364476158703631</v>
       </c>
       <c r="F19">
-        <v>74.84302357737351</v>
+        <v>26.00974979028046</v>
       </c>
       <c r="G19">
-        <v>2.057813427735903</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>36.28134490674493</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.933390407027083</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.18071264122795</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.82082398335783</v>
       </c>
       <c r="L19">
-        <v>6.422699350317094</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.47072288219768</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.536276281725087</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.34717062634654</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.2297300450082</v>
+        <v>25.7445471397842</v>
       </c>
       <c r="C20">
-        <v>15.69067703897499</v>
+        <v>18.178920658363</v>
       </c>
       <c r="D20">
-        <v>12.03895359248713</v>
+        <v>4.507402900037618</v>
       </c>
       <c r="E20">
-        <v>7.392234968227839</v>
+        <v>7.348245701996372</v>
       </c>
       <c r="F20">
-        <v>76.24174698289553</v>
+        <v>26.31956054060997</v>
       </c>
       <c r="G20">
-        <v>2.051639715913888</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>36.7548837708962</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.028951499564379</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.22905396157637</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.83058604971187</v>
       </c>
       <c r="L20">
-        <v>6.459113657907982</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.79538442061856</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.574929206490658</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.61526935790569</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.16086028503491</v>
+        <v>27.33170586474149</v>
       </c>
       <c r="C21">
-        <v>16.81307407831604</v>
+        <v>19.16343298463626</v>
       </c>
       <c r="D21">
-        <v>12.5996701162527</v>
+        <v>4.544024990647518</v>
       </c>
       <c r="E21">
-        <v>7.513386114761938</v>
+        <v>7.295398616665115</v>
       </c>
       <c r="F21">
-        <v>80.90723105430793</v>
+        <v>27.39994568774593</v>
       </c>
       <c r="G21">
-        <v>2.03071851593111</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>38.41248736973574</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.344224045675422</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.41431306836103</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.90978615188837</v>
       </c>
       <c r="L21">
-        <v>6.587583539101432</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.86748090812518</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.707269265496188</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.4852217398118</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.40719365204315</v>
+        <v>28.32696077453675</v>
       </c>
       <c r="C22">
-        <v>17.54077214741325</v>
+        <v>19.7590228934142</v>
       </c>
       <c r="D22">
-        <v>12.9686010804606</v>
+        <v>4.562002121939171</v>
       </c>
       <c r="E22">
-        <v>7.596158730528457</v>
+        <v>7.262294886456965</v>
       </c>
       <c r="F22">
-        <v>83.93869048239567</v>
+        <v>28.16220034868819</v>
       </c>
       <c r="G22">
-        <v>2.016837388151171</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>39.59270293595517</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.545385232282853</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.56347183356342</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.02100177238022</v>
       </c>
       <c r="L22">
-        <v>6.676490531112387</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.55637425284932</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.794493206209701</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.03068486612437</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.74316926475728</v>
+        <v>27.80076356604236</v>
       </c>
       <c r="C23">
-        <v>17.15270972475764</v>
+        <v>19.41583365827878</v>
       </c>
       <c r="D23">
-        <v>12.77139043212114</v>
+        <v>4.546783101440298</v>
       </c>
       <c r="E23">
-        <v>7.55159829177542</v>
+        <v>7.280319174482</v>
       </c>
       <c r="F23">
-        <v>82.32179686314439</v>
+        <v>27.80895134289761</v>
       </c>
       <c r="G23">
-        <v>2.024270343150962</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>39.05807115073247</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.435299605251982</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.503556096049</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.00449912536673</v>
       </c>
       <c r="L23">
-        <v>6.628559672287147</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>16.18962412890136</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.745613674689892</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.74083575313196</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.19784421266341</v>
+        <v>25.71955771310587</v>
       </c>
       <c r="C24">
-        <v>15.67218971134979</v>
+        <v>18.11851961784807</v>
       </c>
       <c r="D24">
-        <v>12.02981485841948</v>
+        <v>4.498271682469142</v>
       </c>
       <c r="E24">
-        <v>7.390304364442649</v>
+        <v>7.349949926211864</v>
       </c>
       <c r="F24">
-        <v>76.16508051091432</v>
+        <v>26.38804264087281</v>
       </c>
       <c r="G24">
-        <v>2.051979245150883</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>36.88117342760086</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.01793892050302</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.2580132682082</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.89780623899177</v>
       </c>
       <c r="L24">
-        <v>6.457091798447882</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.77763101486302</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.569565938659331</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.59941658904688</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.36150407867125</v>
+        <v>23.28622744052804</v>
       </c>
       <c r="C25">
-        <v>14.03201564331998</v>
+        <v>16.630578070945</v>
       </c>
       <c r="D25">
-        <v>11.23417762673776</v>
+        <v>4.445554370468793</v>
       </c>
       <c r="E25">
-        <v>7.227156268119233</v>
+        <v>7.429330500842648</v>
       </c>
       <c r="F25">
-        <v>69.40333072876065</v>
+        <v>24.86635716132551</v>
       </c>
       <c r="G25">
-        <v>2.081429862177244</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>34.54026139147723</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.557490204751677</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.02259259729988</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.83719863239416</v>
       </c>
       <c r="L25">
-        <v>6.291055137312462</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.31437285597655</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.392023169295389</v>
       </c>
       <c r="O25">
+        <v>13.42668389425853</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.33174568698395</v>
+        <v>21.36898596326716</v>
       </c>
       <c r="C2">
-        <v>15.37966502769454</v>
+        <v>15.90689515457312</v>
       </c>
       <c r="D2">
-        <v>4.393702360716603</v>
+        <v>4.464610016191049</v>
       </c>
       <c r="E2">
-        <v>7.493382197383699</v>
+        <v>7.35854290369701</v>
       </c>
       <c r="F2">
-        <v>23.90957702922389</v>
+        <v>22.43656192003345</v>
       </c>
       <c r="G2">
-        <v>33.09862730820993</v>
+        <v>29.96365165205236</v>
       </c>
       <c r="I2">
-        <v>2.758529572184167</v>
+        <v>2.654229844149668</v>
       </c>
       <c r="J2">
-        <v>10.9250605332569</v>
+        <v>10.8093785754693</v>
       </c>
       <c r="K2">
-        <v>16.94296112377506</v>
+        <v>15.7105267837938</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.20249709389405</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.10157646562416</v>
       </c>
       <c r="N2">
-        <v>6.266653795762846</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.56260559035789</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.346005438865693</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.58272466073887</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.90043306112103</v>
+        <v>19.95314128797609</v>
       </c>
       <c r="C3">
-        <v>14.52674623312022</v>
+        <v>14.93951864675441</v>
       </c>
       <c r="D3">
-        <v>4.365875534903131</v>
+        <v>4.393000672637037</v>
       </c>
       <c r="E3">
-        <v>7.538060140902676</v>
+        <v>7.399884786755681</v>
       </c>
       <c r="F3">
-        <v>23.19069081910672</v>
+        <v>21.86766657102519</v>
       </c>
       <c r="G3">
-        <v>31.98734083661795</v>
+        <v>29.14152221589755</v>
       </c>
       <c r="I3">
-        <v>3.01488930786469</v>
+        <v>2.874199975657674</v>
       </c>
       <c r="J3">
-        <v>10.8430275185943</v>
+        <v>10.73254140268193</v>
       </c>
       <c r="K3">
-        <v>16.97459671885175</v>
+        <v>15.84206579125875</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.35991287162603</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.14400815125926</v>
       </c>
       <c r="N3">
-        <v>6.191444151910624</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.95210875125393</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.266420058413486</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.95583245931566</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96911851816641</v>
+        <v>19.0314001797094</v>
       </c>
       <c r="C4">
-        <v>13.98121779615658</v>
+        <v>14.31894550716967</v>
       </c>
       <c r="D4">
-        <v>4.348902170835024</v>
+        <v>4.349025260931759</v>
       </c>
       <c r="E4">
-        <v>7.566543286055605</v>
+        <v>7.426655659306521</v>
       </c>
       <c r="F4">
-        <v>22.75361518854045</v>
+        <v>21.52218333837581</v>
       </c>
       <c r="G4">
-        <v>31.30848712941291</v>
+        <v>28.64742969719253</v>
       </c>
       <c r="I4">
-        <v>3.178059764124068</v>
+        <v>3.014674110929267</v>
       </c>
       <c r="J4">
-        <v>10.79816705895988</v>
+        <v>10.68672211173953</v>
       </c>
       <c r="K4">
-        <v>17.00240048733601</v>
+        <v>15.92851299029988</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.45583505702629</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.19600722651591</v>
       </c>
       <c r="N4">
-        <v>6.148677279686359</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.56479231365462</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.221006045011776</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.55667832427054</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.57599371949192</v>
+        <v>18.64222918709022</v>
       </c>
       <c r="C5">
-        <v>13.76256879408981</v>
+        <v>14.06828130312152</v>
       </c>
       <c r="D5">
-        <v>4.343242989010481</v>
+        <v>4.332550381684459</v>
       </c>
       <c r="E5">
-        <v>7.578131251954168</v>
+        <v>7.437813995752553</v>
       </c>
       <c r="F5">
-        <v>22.56023889273903</v>
+        <v>21.36742614339123</v>
       </c>
       <c r="G5">
-        <v>31.00309148690405</v>
+        <v>28.42145808059635</v>
       </c>
       <c r="I5">
-        <v>3.248908966568892</v>
+        <v>3.076642429125175</v>
       </c>
       <c r="J5">
-        <v>10.77567307397755</v>
+        <v>10.66342621987131</v>
       </c>
       <c r="K5">
-        <v>17.00427893532348</v>
+        <v>15.95525084517971</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.48615654111335</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.2172704750601</v>
       </c>
       <c r="N5">
-        <v>6.132679364664967</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.40460975352822</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.203890858869814</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.39116794430462</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.50950970965657</v>
+        <v>18.57642316744419</v>
       </c>
       <c r="C6">
-        <v>13.7370623113071</v>
+        <v>14.03707624333101</v>
       </c>
       <c r="D6">
-        <v>4.343822525103397</v>
+        <v>4.33158636790094</v>
       </c>
       <c r="E6">
-        <v>7.579730915369066</v>
+        <v>7.439574250743061</v>
       </c>
       <c r="F6">
-        <v>22.50796994901187</v>
+        <v>21.32341543582291</v>
       </c>
       <c r="G6">
-        <v>30.91582013361162</v>
+        <v>28.35058699431776</v>
       </c>
       <c r="I6">
-        <v>3.264464589826698</v>
+        <v>3.091333898076241</v>
       </c>
       <c r="J6">
-        <v>10.76522333816422</v>
+        <v>10.65352038705323</v>
       </c>
       <c r="K6">
-        <v>16.99071982593772</v>
+        <v>15.94776335936042</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.48070256861325</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.21354670112024</v>
       </c>
       <c r="N6">
-        <v>6.130776923367353</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.37858120749229</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.201739398140131</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.3641612454267</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9627902254402</v>
+        <v>19.02494085211351</v>
       </c>
       <c r="C7">
-        <v>14.00812383921444</v>
+        <v>14.33515386445846</v>
       </c>
       <c r="D7">
-        <v>4.353010430638517</v>
+        <v>4.356856523465997</v>
       </c>
       <c r="E7">
-        <v>7.565807289305397</v>
+        <v>7.425853910234912</v>
       </c>
       <c r="F7">
-        <v>22.69625287670922</v>
+        <v>21.44071958349413</v>
       </c>
       <c r="G7">
-        <v>31.2053638160924</v>
+        <v>28.62031576170122</v>
       </c>
       <c r="I7">
-        <v>3.188878628084425</v>
+        <v>3.027796175821596</v>
       </c>
       <c r="J7">
-        <v>10.77935349018703</v>
+        <v>10.61733748476141</v>
       </c>
       <c r="K7">
-        <v>16.96420847888814</v>
+        <v>15.88192117084863</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.41594612588383</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.16553341500224</v>
       </c>
       <c r="N7">
-        <v>6.150367950657161</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.56461278468632</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.222058942976432</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.55611160663386</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.84771288745366</v>
+        <v>20.88961517170896</v>
       </c>
       <c r="C8">
-        <v>15.1272470144406</v>
+        <v>15.58568718563936</v>
       </c>
       <c r="D8">
-        <v>4.38981615376554</v>
+        <v>4.457425984853892</v>
       </c>
       <c r="E8">
-        <v>7.507564051027769</v>
+        <v>7.370148685779052</v>
       </c>
       <c r="F8">
-        <v>23.59109317984764</v>
+        <v>22.08123650977221</v>
       </c>
       <c r="G8">
-        <v>32.58916305073019</v>
+        <v>29.77764028713587</v>
       </c>
       <c r="I8">
-        <v>2.85872744641662</v>
+        <v>2.746533172278904</v>
       </c>
       <c r="J8">
-        <v>10.87141183697523</v>
+        <v>10.58962615853104</v>
       </c>
       <c r="K8">
-        <v>16.901606587358</v>
+        <v>15.66499103525519</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.18467841790657</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.04609256251363</v>
       </c>
       <c r="N8">
-        <v>6.242499612282035</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.35714987798532</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.318612866820648</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.37119887552861</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.13312007130835</v>
+        <v>24.13588062357659</v>
       </c>
       <c r="C9">
-        <v>17.09822385076288</v>
+        <v>17.81218333621383</v>
       </c>
       <c r="D9">
-        <v>4.455166712718079</v>
+        <v>4.633375289738094</v>
       </c>
       <c r="E9">
-        <v>7.403021876566636</v>
+        <v>7.274611154013341</v>
       </c>
       <c r="F9">
-        <v>25.46530265833022</v>
+        <v>23.55798128909724</v>
       </c>
       <c r="G9">
-        <v>35.48497165091449</v>
+        <v>32.03313035953018</v>
       </c>
       <c r="I9">
-        <v>2.709353480966515</v>
+        <v>2.74129673199606</v>
       </c>
       <c r="J9">
-        <v>11.13007354564143</v>
+        <v>10.76549542904541</v>
       </c>
       <c r="K9">
-        <v>16.91872848897279</v>
+        <v>15.39829126726546</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.81511555749306</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.10291132171043</v>
       </c>
       <c r="N9">
-        <v>6.446904748004632</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.80293485298547</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.533756485554118</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.84816364237246</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.30011605254105</v>
+        <v>26.27186244435892</v>
       </c>
       <c r="C10">
-        <v>18.45142711047182</v>
+        <v>19.28591249692751</v>
       </c>
       <c r="D10">
-        <v>4.506314591181087</v>
+        <v>4.784556981776795</v>
       </c>
       <c r="E10">
-        <v>7.331203206528636</v>
+        <v>7.207858647938031</v>
       </c>
       <c r="F10">
-        <v>26.82447554593839</v>
+        <v>24.48356215759936</v>
       </c>
       <c r="G10">
-        <v>37.56323402456289</v>
+        <v>34.03175552109612</v>
       </c>
       <c r="I10">
-        <v>3.129723211178859</v>
+        <v>3.099146281125337</v>
       </c>
       <c r="J10">
-        <v>11.34147154465578</v>
+        <v>10.60816950060611</v>
       </c>
       <c r="K10">
-        <v>16.96358260991932</v>
+        <v>15.14234894476177</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.47314887801747</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.20250222932752</v>
       </c>
       <c r="N10">
-        <v>6.614429767194907</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.91607268559968</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.706246062225732</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.94582979689838</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.23216038491634</v>
+        <v>27.18750687541828</v>
       </c>
       <c r="C11">
-        <v>19.08107645699942</v>
+        <v>19.89132960074956</v>
       </c>
       <c r="D11">
-        <v>4.537598904636207</v>
+        <v>4.898319317000619</v>
       </c>
       <c r="E11">
-        <v>7.29909281428389</v>
+        <v>7.173492881240631</v>
       </c>
       <c r="F11">
-        <v>27.36880830037999</v>
+        <v>24.58286773363015</v>
       </c>
       <c r="G11">
-        <v>38.37423424105336</v>
+        <v>35.41415336682505</v>
       </c>
       <c r="I11">
-        <v>3.321473393399067</v>
+        <v>3.259137230067043</v>
       </c>
       <c r="J11">
-        <v>11.41660909895021</v>
+        <v>10.02946010038568</v>
       </c>
       <c r="K11">
-        <v>16.9357019064043</v>
+        <v>14.84270076856669</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.1902947066451</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.1128175343035</v>
       </c>
       <c r="N11">
-        <v>6.697032165355295</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>15.42960541793261</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.786052871436896</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.44691056029185</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.57848685921778</v>
+        <v>27.52725744138621</v>
       </c>
       <c r="C12">
-        <v>19.29568681514741</v>
+        <v>20.08878111331003</v>
       </c>
       <c r="D12">
-        <v>4.545400628159071</v>
+        <v>4.941532993492865</v>
       </c>
       <c r="E12">
-        <v>7.28748130235774</v>
+        <v>7.159872044487036</v>
       </c>
       <c r="F12">
-        <v>27.61521206284623</v>
+        <v>24.62678889185797</v>
       </c>
       <c r="G12">
-        <v>38.75252339715097</v>
+        <v>36.07400828025659</v>
       </c>
       <c r="I12">
-        <v>3.391706502377517</v>
+        <v>3.315786508742381</v>
       </c>
       <c r="J12">
-        <v>11.46123629056627</v>
+        <v>9.769826916471992</v>
       </c>
       <c r="K12">
-        <v>16.95971263139361</v>
+        <v>14.73990251382794</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.09114799723666</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.09000139828304</v>
       </c>
       <c r="N12">
-        <v>6.727281338661243</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.61965862664107</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.814753876619297</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.63168966038266</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.5043864424485</v>
+        <v>27.45456591187796</v>
       </c>
       <c r="C13">
-        <v>19.24559072268403</v>
+        <v>20.04294131019768</v>
       </c>
       <c r="D13">
-        <v>4.542887401879891</v>
+        <v>4.931011352002207</v>
       </c>
       <c r="E13">
-        <v>7.290041408432925</v>
+        <v>7.162765091493076</v>
       </c>
       <c r="F13">
-        <v>27.57009996479032</v>
+        <v>24.62585906704907</v>
       </c>
       <c r="G13">
-        <v>38.68518570965757</v>
+        <v>35.94164370196806</v>
       </c>
       <c r="I13">
-        <v>3.376163598540585</v>
+        <v>3.302959073509573</v>
       </c>
       <c r="J13">
-        <v>11.45458799804722</v>
+        <v>9.830308003733791</v>
       </c>
       <c r="K13">
-        <v>16.96097839526015</v>
+        <v>14.76816290444103</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.11651715907652</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.1000645867801</v>
       </c>
       <c r="N13">
-        <v>6.72043855657327</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>15.57878514636496</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.808301503751586</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.59198241876074</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.26086862945367</v>
+        <v>27.21567149814062</v>
       </c>
       <c r="C14">
-        <v>19.09707769271501</v>
+        <v>19.90616732469658</v>
       </c>
       <c r="D14">
-        <v>4.537887273133409</v>
+        <v>4.901356505733025</v>
       </c>
       <c r="E14">
-        <v>7.298163163629069</v>
+        <v>7.172355645489495</v>
       </c>
       <c r="F14">
-        <v>27.3924798405628</v>
+        <v>24.59015782875802</v>
       </c>
       <c r="G14">
-        <v>38.41140014103023</v>
+        <v>35.47253608374852</v>
       </c>
       <c r="I14">
-        <v>3.327064591715807</v>
+        <v>3.263521171288777</v>
       </c>
       <c r="J14">
-        <v>11.42154162473319</v>
+        <v>10.01013053597309</v>
       </c>
       <c r="K14">
-        <v>16.94041243892769</v>
+        <v>14.83687073389338</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.18387344678069</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.11314077091377</v>
       </c>
       <c r="N14">
-        <v>6.699380390250688</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>15.44526972290546</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.788298625743542</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.46215469150572</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.11042953597827</v>
+        <v>27.06806566810479</v>
       </c>
       <c r="C15">
-        <v>19.01371335385858</v>
+        <v>19.82851710730135</v>
       </c>
       <c r="D15">
-        <v>4.536463952704438</v>
+        <v>4.885765752053711</v>
       </c>
       <c r="E15">
-        <v>7.303023537622473</v>
+        <v>7.178295320548113</v>
       </c>
       <c r="F15">
-        <v>27.26782731230197</v>
+        <v>24.55003154908075</v>
       </c>
       <c r="G15">
-        <v>38.21548204819202</v>
+        <v>35.16868690376725</v>
       </c>
       <c r="I15">
-        <v>3.297921909480453</v>
+        <v>3.24070654313702</v>
       </c>
       <c r="J15">
-        <v>11.39547883706449</v>
+        <v>10.10881445562894</v>
       </c>
       <c r="K15">
-        <v>16.91520116906397</v>
+        <v>14.86612387097203</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.21662295395908</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.11050742932513</v>
       </c>
       <c r="N15">
-        <v>6.687153313965895</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>15.36321504352091</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.776578700074159</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.38227289512233</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.23548251483279</v>
+        <v>26.20855145343686</v>
       </c>
       <c r="C16">
-        <v>18.4788239841845</v>
+        <v>19.31087310436405</v>
       </c>
       <c r="D16">
-        <v>4.517908032521012</v>
+        <v>4.793584631475125</v>
       </c>
       <c r="E16">
-        <v>7.332053746221397</v>
+        <v>7.210881904242592</v>
       </c>
       <c r="F16">
-        <v>26.65322833523818</v>
+        <v>24.35020463188498</v>
       </c>
       <c r="G16">
-        <v>37.26882102692495</v>
+        <v>33.7304653479275</v>
       </c>
       <c r="I16">
-        <v>3.12458641267261</v>
+        <v>3.099670468518608</v>
       </c>
       <c r="J16">
-        <v>11.28610329784713</v>
+        <v>10.59626072582012</v>
       </c>
       <c r="K16">
-        <v>16.85677276621804</v>
+        <v>15.06884853191848</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.42795502611468</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.1303915327872</v>
       </c>
       <c r="N16">
-        <v>6.614250884080858</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>14.88392256781344</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.70569494391485</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.91430865182095</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.68541938748243</v>
+        <v>25.66742543330071</v>
       </c>
       <c r="C17">
-        <v>18.14480883590733</v>
+        <v>18.97146927305306</v>
       </c>
       <c r="D17">
-        <v>4.506515235664527</v>
+        <v>4.744952997872769</v>
       </c>
       <c r="E17">
-        <v>7.35015309764942</v>
+        <v>7.230048481867798</v>
       </c>
       <c r="F17">
-        <v>26.27615658493456</v>
+        <v>24.17452844614867</v>
       </c>
       <c r="G17">
-        <v>36.68711067863794</v>
+        <v>32.97266599610792</v>
       </c>
       <c r="I17">
-        <v>3.017836093693918</v>
+        <v>3.011738387946969</v>
       </c>
       <c r="J17">
-        <v>11.22098836185281</v>
+        <v>10.79574426061273</v>
       </c>
       <c r="K17">
-        <v>16.82472785161942</v>
+        <v>15.16529502454692</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.53842223564008</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.12370806126689</v>
       </c>
       <c r="N17">
-        <v>6.570420772632247</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>14.58302346051885</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.662047612686832</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.61927239349037</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.36493302090953</v>
+        <v>25.35179750291744</v>
       </c>
       <c r="C18">
-        <v>17.92903717985568</v>
+        <v>18.747501244557</v>
       </c>
       <c r="D18">
-        <v>4.495828213817512</v>
+        <v>4.714979460671786</v>
       </c>
       <c r="E18">
-        <v>7.361071369947926</v>
+        <v>7.240490419307675</v>
       </c>
       <c r="F18">
-        <v>26.10127175288269</v>
+        <v>24.0922193100545</v>
       </c>
       <c r="G18">
-        <v>36.42704340163491</v>
+        <v>32.65035471800999</v>
       </c>
       <c r="I18">
-        <v>2.952894901565434</v>
+        <v>2.955938721672045</v>
       </c>
       <c r="J18">
-        <v>11.19970883664279</v>
+        <v>10.88651301289925</v>
       </c>
       <c r="K18">
-        <v>16.84066837949192</v>
+        <v>15.2386135231476</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.61427783899557</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.13645656092544</v>
       </c>
       <c r="N18">
-        <v>6.543962151563145</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>14.40680009407061</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.635469863867237</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.44604989663685</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.25494288649818</v>
+        <v>25.24348288090312</v>
       </c>
       <c r="C19">
-        <v>17.87214508020352</v>
+        <v>18.6861710199442</v>
       </c>
       <c r="D19">
-        <v>4.495393068268957</v>
+        <v>4.708921977549315</v>
       </c>
       <c r="E19">
-        <v>7.364476158703631</v>
+        <v>7.244154414600431</v>
       </c>
       <c r="F19">
-        <v>26.00974979028046</v>
+        <v>24.03183031434272</v>
       </c>
       <c r="G19">
-        <v>36.28134490674493</v>
+        <v>32.49622883873406</v>
       </c>
       <c r="I19">
-        <v>2.933390407027083</v>
+        <v>2.940438623633292</v>
       </c>
       <c r="J19">
-        <v>11.18071264122795</v>
+        <v>10.90069787255634</v>
       </c>
       <c r="K19">
-        <v>16.82082398335783</v>
+        <v>15.24041782161757</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.62378247133838</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.122010607845</v>
       </c>
       <c r="N19">
-        <v>6.536276281725087</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>14.34717062634654</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.627571794392166</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.38734002578366</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.7445471397842</v>
+        <v>25.72561568392594</v>
       </c>
       <c r="C20">
-        <v>18.178920658363</v>
+        <v>19.00683310322924</v>
       </c>
       <c r="D20">
-        <v>4.507402900037618</v>
+        <v>4.749471213660675</v>
       </c>
       <c r="E20">
-        <v>7.348245701996372</v>
+        <v>7.228022428145045</v>
       </c>
       <c r="F20">
-        <v>26.31956054060997</v>
+        <v>24.198182800269</v>
       </c>
       <c r="G20">
-        <v>36.7548837708962</v>
+        <v>33.05396758643992</v>
       </c>
       <c r="I20">
-        <v>3.028951499564379</v>
+        <v>3.020787906519063</v>
       </c>
       <c r="J20">
-        <v>11.22905396157637</v>
+        <v>10.77937709255418</v>
       </c>
       <c r="K20">
-        <v>16.83058604971187</v>
+        <v>15.15822492529019</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.52890185719225</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.12689983210384</v>
       </c>
       <c r="N20">
-        <v>6.574929206490658</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.61526935790569</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.666586340784357</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.6509386972763</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.33170586474149</v>
+        <v>27.2845822236355</v>
       </c>
       <c r="C21">
-        <v>19.16343298463626</v>
+        <v>19.94242367319614</v>
       </c>
       <c r="D21">
-        <v>4.544024990647518</v>
+        <v>4.928378711721872</v>
       </c>
       <c r="E21">
-        <v>7.295398616665115</v>
+        <v>7.167762046965744</v>
       </c>
       <c r="F21">
-        <v>27.39994568774593</v>
+        <v>24.46891561704271</v>
       </c>
       <c r="G21">
-        <v>38.41248736973574</v>
+        <v>35.74614671406795</v>
       </c>
       <c r="I21">
-        <v>3.344224045675422</v>
+        <v>3.277228590115751</v>
       </c>
       <c r="J21">
-        <v>11.41431306836103</v>
+        <v>9.778351119578337</v>
       </c>
       <c r="K21">
-        <v>16.90978615188837</v>
+        <v>14.73701074573901</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.11111460008244</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.04102226014818</v>
       </c>
       <c r="N21">
-        <v>6.707269265496188</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.4852217398118</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.794072572413361</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.49923735215423</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.32696077453675</v>
+        <v>28.26081285020358</v>
       </c>
       <c r="C22">
-        <v>19.7590228934142</v>
+        <v>20.49905294193277</v>
       </c>
       <c r="D22">
-        <v>4.562002121939171</v>
+        <v>5.045264292582395</v>
       </c>
       <c r="E22">
-        <v>7.262294886456965</v>
+        <v>7.12948486963332</v>
       </c>
       <c r="F22">
-        <v>28.16220034868819</v>
+        <v>24.67345826609579</v>
       </c>
       <c r="G22">
-        <v>39.59270293595517</v>
+        <v>37.66161183723573</v>
       </c>
       <c r="I22">
-        <v>3.545385232282853</v>
+        <v>3.438724561405267</v>
       </c>
       <c r="J22">
-        <v>11.56347183356342</v>
+        <v>9.115218779205387</v>
       </c>
       <c r="K22">
-        <v>17.02100177238022</v>
+        <v>14.48699155704259</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.85705114736873</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.02066676350514</v>
       </c>
       <c r="N22">
-        <v>6.794493206209701</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.03068486612437</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6.877384736830796</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.03011821546913</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.80076356604236</v>
+        <v>27.7451318737972</v>
       </c>
       <c r="C23">
-        <v>19.41583365827878</v>
+        <v>20.19622713900279</v>
       </c>
       <c r="D23">
-        <v>4.546783101440298</v>
+        <v>4.966471937232175</v>
       </c>
       <c r="E23">
-        <v>7.280319174482</v>
+        <v>7.150775580906712</v>
       </c>
       <c r="F23">
-        <v>27.80895134289761</v>
+        <v>24.67804093462721</v>
       </c>
       <c r="G23">
-        <v>39.05807115073247</v>
+        <v>36.57595741017119</v>
       </c>
       <c r="I23">
-        <v>3.435299605251982</v>
+        <v>3.349517658194389</v>
       </c>
       <c r="J23">
-        <v>11.503556096049</v>
+        <v>9.598505028254372</v>
       </c>
       <c r="K23">
-        <v>17.00449912536673</v>
+        <v>14.69238360720907</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.03967855299483</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.09213070695812</v>
       </c>
       <c r="N23">
-        <v>6.745613674689892</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.74083575313196</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>6.832027967357095</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.74932492401775</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.71955771310587</v>
+        <v>25.70087048253361</v>
       </c>
       <c r="C24">
-        <v>18.11851961784807</v>
+        <v>18.94764547242944</v>
       </c>
       <c r="D24">
-        <v>4.498271682469142</v>
+        <v>4.73739282552577</v>
       </c>
       <c r="E24">
-        <v>7.349949926211864</v>
+        <v>7.228415818062489</v>
       </c>
       <c r="F24">
-        <v>26.38804264087281</v>
+        <v>24.26725899897632</v>
       </c>
       <c r="G24">
-        <v>36.88117342760086</v>
+        <v>33.16060330227387</v>
       </c>
       <c r="I24">
-        <v>3.01793892050302</v>
+        <v>3.008175154127496</v>
       </c>
       <c r="J24">
-        <v>11.2580132682082</v>
+        <v>10.81451065718832</v>
       </c>
       <c r="K24">
-        <v>16.89780623899177</v>
+        <v>15.2199779905861</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.57389640494925</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.17426098124783</v>
       </c>
       <c r="N24">
-        <v>6.569565938659331</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.59941658904688</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.661513314072327</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.63541909824189</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28622744052804</v>
+        <v>23.30016229614168</v>
       </c>
       <c r="C25">
-        <v>16.630578070945</v>
+        <v>17.2893713114303</v>
       </c>
       <c r="D25">
-        <v>4.445554370468793</v>
+        <v>4.590638488795541</v>
       </c>
       <c r="E25">
-        <v>7.429330500842648</v>
+        <v>7.300393570694616</v>
       </c>
       <c r="F25">
-        <v>24.86635716132551</v>
+        <v>23.11326901920319</v>
       </c>
       <c r="G25">
-        <v>34.54026139147723</v>
+        <v>31.17969039286135</v>
       </c>
       <c r="I25">
-        <v>2.557490204751677</v>
+        <v>2.614813268666485</v>
       </c>
       <c r="J25">
-        <v>11.02259259729988</v>
+        <v>10.76089229003891</v>
       </c>
       <c r="K25">
-        <v>16.83719863239416</v>
+        <v>15.42684580015226</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.8879972733643</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.0335941707281</v>
       </c>
       <c r="N25">
-        <v>6.392023169295389</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.42668389425853</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.476326929376273</v>
       </c>
       <c r="Q25">
+        <v>13.46495846764033</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
